--- a/data/Morphology.xlsx
+++ b/data/Morphology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastic_Data_Portal-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2DAE3-DB4E-2A4D-9D58-3F1A761491C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99183849-3EEA-9245-B60D-DD22F985E464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4B82F734-0CB1-E24E-B8F5-769322EBD812}"/>
+    <workbookView xWindow="-19460" yWindow="500" windowWidth="19440" windowHeight="27420" xr2:uid="{4B82F734-0CB1-E24E-B8F5-769322EBD812}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="195">
   <si>
     <t>SampleID</t>
   </si>
@@ -47,16 +47,605 @@
   </si>
   <si>
     <t>Morphology</t>
+  </si>
+  <si>
+    <t>1.10.1039/c6ay01184e</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2.10.1039/c6ay01184e</t>
+  </si>
+  <si>
+    <t>Fibers</t>
+  </si>
+  <si>
+    <t>Fragment</t>
+  </si>
+  <si>
+    <t>Pellet</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Foam</t>
+  </si>
+  <si>
+    <t>IB 101119.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>BB 311019 08: 11 PSRL6.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>BB 311019 09: 50 STB1.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>Oct0719.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>BN7141A04117.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>HE.B.No 229 (BM/AS).10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>MU.N.No.298 (MA/AD).10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>SO.B No.087 (AS/LB).10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>Oct 0118NHBRB.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>P18NOV17CG3.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>17.11.18.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>14.10.18.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>09.08.18.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>PRD 03 21 2017 14:02.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>PRD 03 21 2017 14:02.10.3389/fchem.2018.00407	N/A</t>
+  </si>
+  <si>
+    <t>PRD 05 24 17 11:29.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>07.142018 2.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>NV No. AC-51-07269.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>FAB: 211017 09:06SP.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>FAB: 160817 15:05SP.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>FAB: 091217 16:53SP.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>100517 278WF246.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>P: 4/11/17 03:34 AZ.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>730805210A 23:28.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>BBE 11.2018 10.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>20171102 1214JN.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>20171021 3214GH.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>20171103 2106WF.10.3389/fchem.2018.00407</t>
+  </si>
+  <si>
+    <t>fragments</t>
+  </si>
+  <si>
+    <t>shperical</t>
+  </si>
+  <si>
+    <t>fibers</t>
+  </si>
+  <si>
+    <t>WTP1_Treated.10.1016/j.sciotenv.2018.08.178</t>
+  </si>
+  <si>
+    <t>WTP2_Treated.10.1016/j.sciotenv.2018.08.178</t>
+  </si>
+  <si>
+    <t>WTP3_Treated.10.1016/j.sciotenv.2018.08.178</t>
+  </si>
+  <si>
+    <t>films</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.http://dce2.au.dk/pub/SR291.pdf </t>
+  </si>
+  <si>
+    <t>V.10.1016/j.watres.2020.11.6519</t>
+  </si>
+  <si>
+    <t>BJP.10.1016/j.watres.2020.11.6519</t>
+  </si>
+  <si>
+    <t>BJH.10.1016/j.watres.2020.11.6519</t>
+  </si>
+  <si>
+    <t>BOP.10.1016/j.watres.2020.11.6519</t>
+  </si>
+  <si>
+    <t>BOH.10.1016/j.watres.2020.11.6519</t>
+  </si>
+  <si>
+    <t>C.10.18520/cs/v117/i11/1874-1879</t>
+  </si>
+  <si>
+    <t>B1.10.18520/cs/v117/i11/1874-1879</t>
+  </si>
+  <si>
+    <t>B2.10.18520/cs/v117/i11/1874-1879</t>
+  </si>
+  <si>
+    <t>B3.10.18520/cs/v117/i11/1874-1879</t>
+  </si>
+  <si>
+    <t>B4.10.18520/cs/v117/i11/1874-1879</t>
+  </si>
+  <si>
+    <t>B5.10.18520/cs/v117/i11/1874-1879</t>
+  </si>
+  <si>
+    <t>Mintenig_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>fibres</t>
+  </si>
+  <si>
+    <t>Shruti_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>Strand_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>Zhang_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>Mason_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>Mason.1_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>Mason.2_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>Weisheu_10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>foam</t>
+  </si>
+  <si>
+    <t>pellet</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>bead</t>
+  </si>
+  <si>
+    <t>flake</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>granule</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>foil</t>
+  </si>
+  <si>
+    <t>nurdle</t>
+  </si>
+  <si>
+    <t>AverageAll_10.1016/j.watres.2019.02.054</t>
+  </si>
+  <si>
+    <t>spherical</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater.1_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater.2_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater.3_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>TapWater_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>RawWater_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>TreatedDrinkingWater2_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>MineralWaterPET_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>films/fragments</t>
+  </si>
+  <si>
+    <t>Sarkar_10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>Dalmau-Soler_10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>pellets</t>
+  </si>
+  <si>
+    <t>drinking_water.10.3390/w12113115</t>
+  </si>
+  <si>
+    <t>Kankanige1.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Kankanige2.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>spheres</t>
+  </si>
+  <si>
+    <t>Pivokonsky1.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Pivokonsky2.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Kankanige3.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Pivokonsky3.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Kankanige3.1.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Kankanige3.2.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Kankanige3.3.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Kankanige3.4.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Kankanige3.10.1016/j.cotox.2021.09.004</t>
+  </si>
+  <si>
+    <t>Pivokonsky3.10.1016/j.cotox.2021.09.004</t>
+  </si>
+  <si>
+    <t>Kankanige3.10.1016/j.cotox.2021.09.005</t>
+  </si>
+  <si>
+    <t>10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>1.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>fiber</t>
+  </si>
+  <si>
+    <t>2.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>3.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>4.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>5.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>6.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>7.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>8.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>9.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>10.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>11.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>12.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>13.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>15.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>16.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>17.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>18.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>19.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>20.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>21.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>22.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>23.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>24.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>25.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>26.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>27.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>28.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>29.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>30.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>31.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>32.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>33.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>34.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>35.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>36.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>37.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>38.10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>620 particles</t>
+  </si>
+  <si>
+    <t>82 particles</t>
+  </si>
+  <si>
+    <t>228 particles</t>
+  </si>
+  <si>
+    <t>Finished.10.1016/j.scitotenv.2019.134520</t>
+  </si>
+  <si>
+    <t>April_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>April_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>May_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>May_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>June_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>June_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>July_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>July_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>foams</t>
+  </si>
+  <si>
+    <t>TCQS.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>SHN.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>CHQ.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>CHH.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>ZHB.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>DAS.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>XHS.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>HNZ.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>TCH.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>WHH.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Spr.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Sum.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Aut.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Win.10.1016/j.scitotenv.2021.148001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,8 +671,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,14 +991,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DAC35-C46D-9B4B-B799-40C4BA236433}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
@@ -424,7 +1018,6308 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" t="s">
+        <v>46</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>50</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>50</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>42</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>40</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>42</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>56</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>46</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>46</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>58</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>60</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>42</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>60</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>63</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>64</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>64</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>65</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>42</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>65</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>42</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>67</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>67</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>68</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>68</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>69</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>69</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>70</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>71</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>72</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>42</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>72</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>73</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>73</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>74</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>42</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>40</v>
+      </c>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>42</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>40</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>76</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>42</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>76</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>77</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>79</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>78</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>79</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>80</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>81</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>78</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>81</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>40</v>
+      </c>
+      <c r="D210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>82</v>
+      </c>
+      <c r="B211" t="s">
+        <v>83</v>
+      </c>
+      <c r="C211" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>82</v>
+      </c>
+      <c r="B212" t="s">
+        <v>83</v>
+      </c>
+      <c r="C212" t="s">
+        <v>78</v>
+      </c>
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>82</v>
+      </c>
+      <c r="B213" t="s">
+        <v>83</v>
+      </c>
+      <c r="C213" t="s">
+        <v>46</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>82</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C214" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>82</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C215" t="s">
+        <v>78</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>82</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C216" t="s">
+        <v>46</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>85</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>78</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>98</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>40</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>98</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>78</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>98</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>86</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>98</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>87</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>98</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>88</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>98</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>89</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>98</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>90</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>98</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>91</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>98</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>92</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>98</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>93</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>98</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>94</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>98</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>95</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>98</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>96</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>98</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>97</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>100</v>
+      </c>
+      <c r="B232" t="s">
+        <v>101</v>
+      </c>
+      <c r="C232" t="s">
+        <v>40</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>100</v>
+      </c>
+      <c r="B233" t="s">
+        <v>101</v>
+      </c>
+      <c r="C233" t="s">
+        <v>99</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>100</v>
+      </c>
+      <c r="B234" t="s">
+        <v>101</v>
+      </c>
+      <c r="C234" t="s">
+        <v>78</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>100</v>
+      </c>
+      <c r="B235" t="s">
+        <v>102</v>
+      </c>
+      <c r="C235" t="s">
+        <v>40</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>100</v>
+      </c>
+      <c r="B236" t="s">
+        <v>102</v>
+      </c>
+      <c r="C236" t="s">
+        <v>99</v>
+      </c>
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>100</v>
+      </c>
+      <c r="B237" t="s">
+        <v>102</v>
+      </c>
+      <c r="C237" t="s">
+        <v>78</v>
+      </c>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>100</v>
+      </c>
+      <c r="B238" t="s">
+        <v>103</v>
+      </c>
+      <c r="C238" t="s">
+        <v>40</v>
+      </c>
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>100</v>
+      </c>
+      <c r="B239" t="s">
+        <v>103</v>
+      </c>
+      <c r="C239" t="s">
+        <v>99</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>100</v>
+      </c>
+      <c r="B240" t="s">
+        <v>103</v>
+      </c>
+      <c r="C240" t="s">
+        <v>78</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>105</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>89</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>105</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>42</v>
+      </c>
+      <c r="D242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>105</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>104</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>106</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>89</v>
+      </c>
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>106</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>106</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>104</v>
+      </c>
+      <c r="D246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>107</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>89</v>
+      </c>
+      <c r="D247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>107</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>42</v>
+      </c>
+      <c r="D248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>107</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>104</v>
+      </c>
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>108</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>89</v>
+      </c>
+      <c r="D250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>110</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>42</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>110</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>109</v>
+      </c>
+      <c r="D252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>111</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>40</v>
+      </c>
+      <c r="D253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>111</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>42</v>
+      </c>
+      <c r="D254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>113</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>42</v>
+      </c>
+      <c r="D255" s="4">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>113</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>112</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>113</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>46</v>
+      </c>
+      <c r="D257" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>114</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>78</v>
+      </c>
+      <c r="D258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>114</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>115</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>78</v>
+      </c>
+      <c r="D260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>115</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>40</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>117</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>42</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>117</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>40</v>
+      </c>
+      <c r="D263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>117</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>116</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>118</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>42</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>118</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>40</v>
+      </c>
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>118</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>116</v>
+      </c>
+      <c r="D267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>119</v>
+      </c>
+      <c r="B268" t="s">
+        <v>121</v>
+      </c>
+      <c r="C268" t="s">
+        <v>42</v>
+      </c>
+      <c r="D268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>119</v>
+      </c>
+      <c r="B269" t="s">
+        <v>121</v>
+      </c>
+      <c r="C269" t="s">
+        <v>40</v>
+      </c>
+      <c r="D269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>119</v>
+      </c>
+      <c r="B270" t="s">
+        <v>122</v>
+      </c>
+      <c r="C270" t="s">
+        <v>42</v>
+      </c>
+      <c r="D270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>119</v>
+      </c>
+      <c r="B271" t="s">
+        <v>122</v>
+      </c>
+      <c r="C271" t="s">
+        <v>40</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>120</v>
+      </c>
+      <c r="B272" t="s">
+        <v>123</v>
+      </c>
+      <c r="C272" t="s">
+        <v>42</v>
+      </c>
+      <c r="D272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>125</v>
+      </c>
+      <c r="B273" t="s">
+        <v>123</v>
+      </c>
+      <c r="C273" t="s">
+        <v>40</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>126</v>
+      </c>
+      <c r="B274" t="s">
+        <v>124</v>
+      </c>
+      <c r="C274" t="s">
+        <v>42</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>127</v>
+      </c>
+      <c r="B275" t="s">
+        <v>124</v>
+      </c>
+      <c r="C275" t="s">
+        <v>40</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>128</v>
+      </c>
+      <c r="B276" t="s">
+        <v>129</v>
+      </c>
+      <c r="C276" t="s">
+        <v>104</v>
+      </c>
+      <c r="D276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B277" t="s">
+        <v>131</v>
+      </c>
+      <c r="C277" t="s">
+        <v>104</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B278" t="s">
+        <v>131</v>
+      </c>
+      <c r="C278" t="s">
+        <v>130</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B279" t="s">
+        <v>131</v>
+      </c>
+      <c r="C279" t="s">
+        <v>89</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>128</v>
+      </c>
+      <c r="B280" t="s">
+        <v>132</v>
+      </c>
+      <c r="C280" t="s">
+        <v>104</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>128</v>
+      </c>
+      <c r="B281" t="s">
+        <v>132</v>
+      </c>
+      <c r="C281" t="s">
+        <v>130</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>128</v>
+      </c>
+      <c r="B282" t="s">
+        <v>132</v>
+      </c>
+      <c r="C282" t="s">
+        <v>89</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B283" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283" t="s">
+        <v>104</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B284" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" t="s">
+        <v>130</v>
+      </c>
+      <c r="D284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>128</v>
+      </c>
+      <c r="B285" t="s">
+        <v>134</v>
+      </c>
+      <c r="C285" t="s">
+        <v>104</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>128</v>
+      </c>
+      <c r="B286" t="s">
+        <v>134</v>
+      </c>
+      <c r="C286" t="s">
+        <v>130</v>
+      </c>
+      <c r="D286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B287" t="s">
+        <v>135</v>
+      </c>
+      <c r="C287" t="s">
+        <v>104</v>
+      </c>
+      <c r="D287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B288" t="s">
+        <v>135</v>
+      </c>
+      <c r="C288" t="s">
+        <v>130</v>
+      </c>
+      <c r="D288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>128</v>
+      </c>
+      <c r="B289" t="s">
+        <v>136</v>
+      </c>
+      <c r="C289" t="s">
+        <v>104</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>128</v>
+      </c>
+      <c r="B290" t="s">
+        <v>136</v>
+      </c>
+      <c r="C290" t="s">
+        <v>130</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B291" t="s">
+        <v>137</v>
+      </c>
+      <c r="C291" t="s">
+        <v>104</v>
+      </c>
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B292" t="s">
+        <v>137</v>
+      </c>
+      <c r="C292" t="s">
+        <v>130</v>
+      </c>
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>128</v>
+      </c>
+      <c r="B293" t="s">
+        <v>138</v>
+      </c>
+      <c r="C293" t="s">
+        <v>104</v>
+      </c>
+      <c r="D293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>128</v>
+      </c>
+      <c r="B294" t="s">
+        <v>138</v>
+      </c>
+      <c r="C294" t="s">
+        <v>130</v>
+      </c>
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B295" t="s">
+        <v>139</v>
+      </c>
+      <c r="C295" t="s">
+        <v>104</v>
+      </c>
+      <c r="D295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B296" t="s">
+        <v>139</v>
+      </c>
+      <c r="C296" t="s">
+        <v>130</v>
+      </c>
+      <c r="D296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>128</v>
+      </c>
+      <c r="B297" t="s">
+        <v>140</v>
+      </c>
+      <c r="C297" t="s">
+        <v>104</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>128</v>
+      </c>
+      <c r="B298" t="s">
+        <v>140</v>
+      </c>
+      <c r="C298" t="s">
+        <v>130</v>
+      </c>
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B299" t="s">
+        <v>141</v>
+      </c>
+      <c r="C299" t="s">
+        <v>130</v>
+      </c>
+      <c r="D299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>128</v>
+      </c>
+      <c r="B300" t="s">
+        <v>142</v>
+      </c>
+      <c r="C300" t="s">
+        <v>104</v>
+      </c>
+      <c r="D300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>128</v>
+      </c>
+      <c r="B301" t="s">
+        <v>142</v>
+      </c>
+      <c r="C301" t="s">
+        <v>130</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>128</v>
+      </c>
+      <c r="B302" t="s">
+        <v>143</v>
+      </c>
+      <c r="C302" t="s">
+        <v>104</v>
+      </c>
+      <c r="D302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B303" t="s">
+        <v>144</v>
+      </c>
+      <c r="C303" t="s">
+        <v>104</v>
+      </c>
+      <c r="D303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B304" t="s">
+        <v>144</v>
+      </c>
+      <c r="C304" t="s">
+        <v>130</v>
+      </c>
+      <c r="D304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>128</v>
+      </c>
+      <c r="B305" t="s">
+        <v>145</v>
+      </c>
+      <c r="C305" t="s">
+        <v>104</v>
+      </c>
+      <c r="D305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>128</v>
+      </c>
+      <c r="B306" t="s">
+        <v>145</v>
+      </c>
+      <c r="C306" t="s">
+        <v>130</v>
+      </c>
+      <c r="D306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B307" t="s">
+        <v>146</v>
+      </c>
+      <c r="C307" t="s">
+        <v>104</v>
+      </c>
+      <c r="D307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B308" t="s">
+        <v>146</v>
+      </c>
+      <c r="C308" t="s">
+        <v>130</v>
+      </c>
+      <c r="D308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>128</v>
+      </c>
+      <c r="B309" t="s">
+        <v>147</v>
+      </c>
+      <c r="C309" t="s">
+        <v>104</v>
+      </c>
+      <c r="D309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B310" t="s">
+        <v>148</v>
+      </c>
+      <c r="C310" t="s">
+        <v>104</v>
+      </c>
+      <c r="D310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B311" t="s">
+        <v>148</v>
+      </c>
+      <c r="C311" t="s">
+        <v>130</v>
+      </c>
+      <c r="D311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>128</v>
+      </c>
+      <c r="B312" t="s">
+        <v>149</v>
+      </c>
+      <c r="C312" t="s">
+        <v>104</v>
+      </c>
+      <c r="D312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>128</v>
+      </c>
+      <c r="B313" t="s">
+        <v>149</v>
+      </c>
+      <c r="C313" t="s">
+        <v>130</v>
+      </c>
+      <c r="D313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B314" t="s">
+        <v>150</v>
+      </c>
+      <c r="C314" t="s">
+        <v>104</v>
+      </c>
+      <c r="D314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B315" t="s">
+        <v>150</v>
+      </c>
+      <c r="C315" t="s">
+        <v>130</v>
+      </c>
+      <c r="D315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>128</v>
+      </c>
+      <c r="B316" t="s">
+        <v>151</v>
+      </c>
+      <c r="C316" t="s">
+        <v>104</v>
+      </c>
+      <c r="D316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>128</v>
+      </c>
+      <c r="B317" t="s">
+        <v>151</v>
+      </c>
+      <c r="C317" t="s">
+        <v>130</v>
+      </c>
+      <c r="D317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>128</v>
+      </c>
+      <c r="B318" t="s">
+        <v>151</v>
+      </c>
+      <c r="C318" t="s">
+        <v>89</v>
+      </c>
+      <c r="D318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B319" t="s">
+        <v>152</v>
+      </c>
+      <c r="C319" t="s">
+        <v>104</v>
+      </c>
+      <c r="D319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B320" t="s">
+        <v>152</v>
+      </c>
+      <c r="C320" t="s">
+        <v>130</v>
+      </c>
+      <c r="D320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B321" t="s">
+        <v>152</v>
+      </c>
+      <c r="C321" t="s">
+        <v>89</v>
+      </c>
+      <c r="D321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>128</v>
+      </c>
+      <c r="B322" t="s">
+        <v>153</v>
+      </c>
+      <c r="C322" t="s">
+        <v>104</v>
+      </c>
+      <c r="D322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>128</v>
+      </c>
+      <c r="B323" t="s">
+        <v>153</v>
+      </c>
+      <c r="C323" t="s">
+        <v>130</v>
+      </c>
+      <c r="D323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B324" t="s">
+        <v>154</v>
+      </c>
+      <c r="C324" t="s">
+        <v>104</v>
+      </c>
+      <c r="D324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B325" t="s">
+        <v>154</v>
+      </c>
+      <c r="C325" t="s">
+        <v>130</v>
+      </c>
+      <c r="D325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B326" t="s">
+        <v>154</v>
+      </c>
+      <c r="C326" t="s">
+        <v>89</v>
+      </c>
+      <c r="D326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>128</v>
+      </c>
+      <c r="B327" t="s">
+        <v>155</v>
+      </c>
+      <c r="C327" t="s">
+        <v>104</v>
+      </c>
+      <c r="D327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>128</v>
+      </c>
+      <c r="B328" t="s">
+        <v>155</v>
+      </c>
+      <c r="C328" t="s">
+        <v>130</v>
+      </c>
+      <c r="D328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>128</v>
+      </c>
+      <c r="B329" t="s">
+        <v>155</v>
+      </c>
+      <c r="C329" t="s">
+        <v>89</v>
+      </c>
+      <c r="D329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B330" t="s">
+        <v>156</v>
+      </c>
+      <c r="C330" t="s">
+        <v>104</v>
+      </c>
+      <c r="D330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B331" t="s">
+        <v>156</v>
+      </c>
+      <c r="C331" t="s">
+        <v>130</v>
+      </c>
+      <c r="D331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B332" t="s">
+        <v>156</v>
+      </c>
+      <c r="C332" t="s">
+        <v>89</v>
+      </c>
+      <c r="D332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>128</v>
+      </c>
+      <c r="B333" t="s">
+        <v>157</v>
+      </c>
+      <c r="C333" t="s">
+        <v>104</v>
+      </c>
+      <c r="D333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>128</v>
+      </c>
+      <c r="B334" t="s">
+        <v>157</v>
+      </c>
+      <c r="C334" t="s">
+        <v>130</v>
+      </c>
+      <c r="D334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>128</v>
+      </c>
+      <c r="B335" t="s">
+        <v>157</v>
+      </c>
+      <c r="C335" t="s">
+        <v>89</v>
+      </c>
+      <c r="D335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B336" t="s">
+        <v>158</v>
+      </c>
+      <c r="C336" t="s">
+        <v>104</v>
+      </c>
+      <c r="D336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B337" t="s">
+        <v>158</v>
+      </c>
+      <c r="C337" t="s">
+        <v>130</v>
+      </c>
+      <c r="D337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>128</v>
+      </c>
+      <c r="B338" t="s">
+        <v>159</v>
+      </c>
+      <c r="C338" t="s">
+        <v>104</v>
+      </c>
+      <c r="D338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>128</v>
+      </c>
+      <c r="B339" t="s">
+        <v>159</v>
+      </c>
+      <c r="C339" t="s">
+        <v>130</v>
+      </c>
+      <c r="D339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B340" t="s">
+        <v>160</v>
+      </c>
+      <c r="C340" t="s">
+        <v>104</v>
+      </c>
+      <c r="D340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B341" t="s">
+        <v>160</v>
+      </c>
+      <c r="C341" t="s">
+        <v>130</v>
+      </c>
+      <c r="D341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B342" t="s">
+        <v>160</v>
+      </c>
+      <c r="C342" t="s">
+        <v>89</v>
+      </c>
+      <c r="D342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>128</v>
+      </c>
+      <c r="B343" t="s">
+        <v>161</v>
+      </c>
+      <c r="C343" t="s">
+        <v>104</v>
+      </c>
+      <c r="D343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>128</v>
+      </c>
+      <c r="B344" t="s">
+        <v>161</v>
+      </c>
+      <c r="C344" t="s">
+        <v>130</v>
+      </c>
+      <c r="D344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>128</v>
+      </c>
+      <c r="B345" t="s">
+        <v>161</v>
+      </c>
+      <c r="C345" t="s">
+        <v>89</v>
+      </c>
+      <c r="D345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B346" t="s">
+        <v>162</v>
+      </c>
+      <c r="C346" t="s">
+        <v>104</v>
+      </c>
+      <c r="D346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B347" t="s">
+        <v>162</v>
+      </c>
+      <c r="C347" t="s">
+        <v>130</v>
+      </c>
+      <c r="D347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B348" t="s">
+        <v>162</v>
+      </c>
+      <c r="C348" t="s">
+        <v>89</v>
+      </c>
+      <c r="D348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>128</v>
+      </c>
+      <c r="B349" t="s">
+        <v>163</v>
+      </c>
+      <c r="C349" t="s">
+        <v>104</v>
+      </c>
+      <c r="D349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>128</v>
+      </c>
+      <c r="B350" t="s">
+        <v>163</v>
+      </c>
+      <c r="C350" t="s">
+        <v>130</v>
+      </c>
+      <c r="D350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>128</v>
+      </c>
+      <c r="B351" t="s">
+        <v>163</v>
+      </c>
+      <c r="C351" t="s">
+        <v>89</v>
+      </c>
+      <c r="D351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B352" t="s">
+        <v>164</v>
+      </c>
+      <c r="C352" t="s">
+        <v>104</v>
+      </c>
+      <c r="D352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B353" t="s">
+        <v>164</v>
+      </c>
+      <c r="C353" t="s">
+        <v>89</v>
+      </c>
+      <c r="D353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>128</v>
+      </c>
+      <c r="B354" t="s">
+        <v>165</v>
+      </c>
+      <c r="C354" t="s">
+        <v>104</v>
+      </c>
+      <c r="D354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>128</v>
+      </c>
+      <c r="B355" t="s">
+        <v>165</v>
+      </c>
+      <c r="C355" t="s">
+        <v>130</v>
+      </c>
+      <c r="D355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>128</v>
+      </c>
+      <c r="B356" t="s">
+        <v>165</v>
+      </c>
+      <c r="C356" t="s">
+        <v>89</v>
+      </c>
+      <c r="D356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B357" t="s">
+        <v>166</v>
+      </c>
+      <c r="C357" t="s">
+        <v>104</v>
+      </c>
+      <c r="D357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B358" t="s">
+        <v>166</v>
+      </c>
+      <c r="C358" t="s">
+        <v>130</v>
+      </c>
+      <c r="D358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>170</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>42</v>
+      </c>
+      <c r="D359" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>170</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>116</v>
+      </c>
+      <c r="D360" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>170</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>40</v>
+      </c>
+      <c r="D361" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>171</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>116</v>
+      </c>
+      <c r="D362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>171</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>42</v>
+      </c>
+      <c r="D363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>171</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>40</v>
+      </c>
+      <c r="D364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>172</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>116</v>
+      </c>
+      <c r="D365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>172</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>42</v>
+      </c>
+      <c r="D366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>172</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>40</v>
+      </c>
+      <c r="D367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>173</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>116</v>
+      </c>
+      <c r="D368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>173</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>42</v>
+      </c>
+      <c r="D369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>173</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>40</v>
+      </c>
+      <c r="D370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>174</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>42</v>
+      </c>
+      <c r="D371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>174</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>40</v>
+      </c>
+      <c r="D372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>175</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>42</v>
+      </c>
+      <c r="D373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>175</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>40</v>
+      </c>
+      <c r="D374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>176</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>42</v>
+      </c>
+      <c r="D375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>176</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>40</v>
+      </c>
+      <c r="D376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>177</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>42</v>
+      </c>
+      <c r="D377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>177</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>40</v>
+      </c>
+      <c r="D378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>178</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>116</v>
+      </c>
+      <c r="D379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>178</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>42</v>
+      </c>
+      <c r="D380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>178</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>40</v>
+      </c>
+      <c r="D381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>181</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>42</v>
+      </c>
+      <c r="D382" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>181</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>40</v>
+      </c>
+      <c r="D383" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>181</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>179</v>
+      </c>
+      <c r="D384" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>181</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>112</v>
+      </c>
+      <c r="D385" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>181</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>180</v>
+      </c>
+      <c r="D386" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>182</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>42</v>
+      </c>
+      <c r="D387" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>182</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>40</v>
+      </c>
+      <c r="D388" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>182</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>179</v>
+      </c>
+      <c r="D389" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>182</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>112</v>
+      </c>
+      <c r="D390" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>182</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>180</v>
+      </c>
+      <c r="D391" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>183</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>42</v>
+      </c>
+      <c r="D392" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>183</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>40</v>
+      </c>
+      <c r="D393" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>183</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>179</v>
+      </c>
+      <c r="D394" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>183</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>112</v>
+      </c>
+      <c r="D395" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>183</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>180</v>
+      </c>
+      <c r="D396" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>184</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>42</v>
+      </c>
+      <c r="D397" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>184</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>40</v>
+      </c>
+      <c r="D398" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>184</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>179</v>
+      </c>
+      <c r="D399" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>184</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>112</v>
+      </c>
+      <c r="D400" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>184</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>180</v>
+      </c>
+      <c r="D401" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>185</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>42</v>
+      </c>
+      <c r="D402" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>185</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>40</v>
+      </c>
+      <c r="D403" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>185</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>179</v>
+      </c>
+      <c r="D404" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>185</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>112</v>
+      </c>
+      <c r="D405" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>185</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>180</v>
+      </c>
+      <c r="D406" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>186</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>42</v>
+      </c>
+      <c r="D407" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>186</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>40</v>
+      </c>
+      <c r="D408" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>186</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>179</v>
+      </c>
+      <c r="D409" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>186</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>112</v>
+      </c>
+      <c r="D410" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>186</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>180</v>
+      </c>
+      <c r="D411" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>187</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>42</v>
+      </c>
+      <c r="D412" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>187</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>40</v>
+      </c>
+      <c r="D413" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>187</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>179</v>
+      </c>
+      <c r="D414" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>187</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>112</v>
+      </c>
+      <c r="D415" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>187</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>180</v>
+      </c>
+      <c r="D416" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>188</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>42</v>
+      </c>
+      <c r="D417" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>188</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>40</v>
+      </c>
+      <c r="D418" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>188</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>179</v>
+      </c>
+      <c r="D419" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>188</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>112</v>
+      </c>
+      <c r="D420" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>188</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>180</v>
+      </c>
+      <c r="D421" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>189</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>42</v>
+      </c>
+      <c r="D422" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>189</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" t="s">
+        <v>40</v>
+      </c>
+      <c r="D423" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>189</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" t="s">
+        <v>179</v>
+      </c>
+      <c r="D424" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>189</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" t="s">
+        <v>112</v>
+      </c>
+      <c r="D425" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>189</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" t="s">
+        <v>180</v>
+      </c>
+      <c r="D426" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>190</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" t="s">
+        <v>42</v>
+      </c>
+      <c r="D427" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>190</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" t="s">
+        <v>40</v>
+      </c>
+      <c r="D428" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>190</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" t="s">
+        <v>179</v>
+      </c>
+      <c r="D429" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>190</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>112</v>
+      </c>
+      <c r="D430" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>190</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" t="s">
+        <v>180</v>
+      </c>
+      <c r="D431" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>191</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" t="s">
+        <v>42</v>
+      </c>
+      <c r="D432" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>191</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" t="s">
+        <v>40</v>
+      </c>
+      <c r="D433" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>191</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" t="s">
+        <v>179</v>
+      </c>
+      <c r="D434" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>191</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>112</v>
+      </c>
+      <c r="D435" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>191</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>180</v>
+      </c>
+      <c r="D436" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>192</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>42</v>
+      </c>
+      <c r="D437" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>192</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>40</v>
+      </c>
+      <c r="D438" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>192</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>179</v>
+      </c>
+      <c r="D439" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>192</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>112</v>
+      </c>
+      <c r="D440" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>192</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>180</v>
+      </c>
+      <c r="D441" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>193</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" t="s">
+        <v>42</v>
+      </c>
+      <c r="D442" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>193</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>40</v>
+      </c>
+      <c r="D443" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>193</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>179</v>
+      </c>
+      <c r="D444" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>193</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>112</v>
+      </c>
+      <c r="D445" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>193</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>180</v>
+      </c>
+      <c r="D446" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>194</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>42</v>
+      </c>
+      <c r="D447" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>194</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>40</v>
+      </c>
+      <c r="D448" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>194</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>179</v>
+      </c>
+      <c r="D449" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>194</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" t="s">
+        <v>112</v>
+      </c>
+      <c r="D450" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>194</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>180</v>
+      </c>
+      <c r="D451" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>